--- a/data/viaticos_dispersionNum.xlsx
+++ b/data/viaticos_dispersionNum.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4760" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4762" uniqueCount="349">
   <si>
     <t>PK_VIATICOS</t>
   </si>
@@ -1073,6 +1073,12 @@
   </si>
   <si>
     <t>EL coefVar indica que la DT es casi igual a la media</t>
+  </si>
+  <si>
+    <t>GINI</t>
+  </si>
+  <si>
+    <t>De: https://fastexcel.wordpress.com/2011/05/21/fast-gini/</t>
   </si>
 </sst>
 </file>
@@ -1453,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1181"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1931,6 +1937,16 @@
       <c r="H14" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="J14" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="K14" s="6">
+        <f t="array" ref="K14">AVERAGE(ABS(NUMS-TRANSPOSE(NUMS)))/AVERAGE(NUMS)/2</f>
+        <v>0.35342345096337541</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
@@ -1957,16 +1973,6 @@
       <c r="H15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="K15" s="13">
-        <f>MEDIAN(NUMS)</f>
-        <v>640</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>335</v>
-      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
@@ -1994,14 +2000,14 @@
         <v>11</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="K16" s="13">
-        <f t="array" ref="K16">MEDIAN(ABS(NUMS-K15))</f>
-        <v>320</v>
+        <f>MEDIAN(NUMS)</f>
+        <v>640</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -2030,14 +2036,14 @@
         <v>11</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="K17" s="13">
-        <f>QUARTILE(NUMS,1)</f>
+        <f t="array" ref="K17">MEDIAN(ABS(NUMS-K16))</f>
         <v>320</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -2066,14 +2072,14 @@
         <v>11</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K18" s="13">
-        <f>QUARTILE(NUMS,3)</f>
-        <v>960</v>
+        <f>QUARTILE(NUMS,1)</f>
+        <v>320</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -2102,14 +2108,14 @@
         <v>11</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K19" s="13">
-        <f>K18-K17</f>
-        <v>640</v>
+        <f>QUARTILE(NUMS,3)</f>
+        <v>960</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -2138,14 +2144,14 @@
         <v>11</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K20" s="13">
-        <f>K18+1.5*K19</f>
-        <v>1920</v>
+        <f>K19-K18</f>
+        <v>640</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -2174,14 +2180,14 @@
         <v>11</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K21" s="13">
-        <f>COUNTIF(NUMS,"&gt;1920")</f>
-        <v>42</v>
+        <f>K19+1.5*K20</f>
+        <v>1920</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -2210,13 +2216,15 @@
         <v>11</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="K22" s="13">
-        <f>1-PERCENTRANK(NUMS,K20)</f>
-        <v>4.2000000000000037E-2</v>
-      </c>
-      <c r="L22" s="12"/>
+        <f>COUNTIF(NUMS,"&gt;1920")</f>
+        <v>42</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
@@ -2243,6 +2251,14 @@
       <c r="H23" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="J23" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="K23" s="13">
+        <f>1-PERCENTRANK(NUMS,K21)</f>
+        <v>4.2000000000000037E-2</v>
+      </c>
+      <c r="L23" s="12"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
